--- a/xls/vipConfig.xlsx
+++ b/xls/vipConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="3330" yWindow="-195" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@配置表" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,15 +55,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表:VipConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>giftPrice[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置表:VipConfig</t>
+    <t>buyArenaTimes[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,74 +151,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -232,14 +163,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -274,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="25.375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
@@ -546,7 +477,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -560,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -580,7 +514,9 @@
       <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -598,7 +534,9 @@
       <c r="D4" s="2">
         <v>101</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -616,7 +554,9 @@
       <c r="D5" s="2">
         <v>102</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -634,6 +574,9 @@
       <c r="D6" s="2">
         <v>103</v>
       </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -648,6 +591,9 @@
       <c r="D7" s="2">
         <v>104</v>
       </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -662,6 +608,9 @@
       <c r="D8" s="2">
         <v>105</v>
       </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -674,6 +623,9 @@
       <c r="D9" s="2">
         <v>106</v>
       </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -686,6 +638,9 @@
       <c r="D10" s="2">
         <v>107</v>
       </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -698,6 +653,9 @@
       <c r="D11" s="2">
         <v>108</v>
       </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -710,6 +668,9 @@
       <c r="D12" s="2">
         <v>109</v>
       </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -722,6 +683,9 @@
       <c r="D13" s="2">
         <v>110</v>
       </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -734,6 +698,9 @@
       <c r="D14" s="2">
         <v>111</v>
       </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -745,6 +712,9 @@
       <c r="D15" s="2">
         <v>112</v>
       </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -756,8 +726,11 @@
       <c r="D16" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -766,6 +739,14 @@
       </c>
       <c r="D17" s="2">
         <v>114</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -793,7 +774,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/xls/vipConfig.xlsx
+++ b/xls/vipConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>buyArenaTimes[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyLinePower[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买行动力次数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +460,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,6 +490,9 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -497,7 +508,9 @@
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -517,7 +530,9 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -537,7 +552,9 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -557,7 +574,9 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -577,6 +596,9 @@
       <c r="E6" s="1">
         <v>3</v>
       </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -594,6 +616,9 @@
       <c r="E7" s="1">
         <v>3</v>
       </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -611,6 +636,9 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -626,6 +654,9 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -641,6 +672,9 @@
       <c r="E10" s="1">
         <v>3</v>
       </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -656,6 +690,9 @@
       <c r="E11" s="1">
         <v>4</v>
       </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -671,6 +708,9 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -686,6 +726,9 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -701,6 +744,9 @@
       <c r="E14" s="1">
         <v>5</v>
       </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -715,6 +761,9 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -729,8 +778,11 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -743,8 +795,11 @@
       <c r="E17" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
